--- a/src/main/resources/export/Company.xlsx
+++ b/src/main/resources/export/Company.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D04E26-40E3-445C-998C-4323A64D9726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B74C1F6-65D8-4BE0-8C76-AA6E2DC046BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Adress Livraison" sheetId="4" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>company_code</t>
   </si>
@@ -26,9 +26,6 @@
     <t>company_activityArea</t>
   </si>
   <si>
-    <t xml:space="preserve">company_name_address Ligne d'adresse </t>
-  </si>
-  <si>
     <t>company_line1_address</t>
   </si>
   <si>
@@ -57,13 +54,19 @@
   </si>
   <si>
     <t>company_commonIdentifierOfCompany</t>
+  </si>
+  <si>
+    <t>company_name_address</t>
+  </si>
+  <si>
+    <t>company_tradeRegister</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +85,12 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -145,11 +154,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,19 +504,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B92B958-BCEC-4160-867A-4AE79032E5DF}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.28515625" customWidth="1"/>
+    <col min="6" max="6" width="31.140625" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" customWidth="1"/>
+    <col min="10" max="10" width="25" customWidth="1"/>
+    <col min="11" max="11" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -512,40 +539,44 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/export/Company.xlsx
+++ b/src/main/resources/export/Company.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B74C1F6-65D8-4BE0-8C76-AA6E2DC046BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6217B22E-0979-4266-9B9E-C546E50C7722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Adress Livraison" sheetId="4" r:id="rId1"/>
+    <sheet name="Liste des Sociétés" sheetId="4" r:id="rId1"/>
+    <sheet name="Description" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="38">
   <si>
     <t>company_code</t>
   </si>
@@ -60,13 +61,82 @@
   </si>
   <si>
     <t>company_tradeRegister</t>
+  </si>
+  <si>
+    <t>Nom du champ</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Valeurs possibles</t>
+  </si>
+  <si>
+    <t>Obligatoire</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Alphanumérique</t>
+  </si>
+  <si>
+    <t>Oui</t>
+  </si>
+  <si>
+    <t>Nom</t>
+  </si>
+  <si>
+    <t>Secteur d'activité</t>
+  </si>
+  <si>
+    <t>Non</t>
+  </si>
+  <si>
+    <t>Nom Adresse</t>
+  </si>
+  <si>
+    <t>Premiére Ligne d'adresse Facturation</t>
+  </si>
+  <si>
+    <t>Deuxiéme Ligne d'adresse Facturation</t>
+  </si>
+  <si>
+    <t>Code Postal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numérique </t>
+  </si>
+  <si>
+    <t>Pays de Facturation</t>
+  </si>
+  <si>
+    <t>Ville de Facturation</t>
+  </si>
+  <si>
+    <t>Tax Professionnelle</t>
+  </si>
+  <si>
+    <t>Numéro téléphone</t>
+  </si>
+  <si>
+    <t>ICE</t>
+  </si>
+  <si>
+    <t>Registre de commerce</t>
+  </si>
+  <si>
+    <t>Identifiant Fiscal</t>
+  </si>
+  <si>
+    <t>Numéro de CNSS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,8 +165,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,6 +189,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -154,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -165,6 +248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,28 +591,29 @@
   <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.28515625" customWidth="1"/>
-    <col min="6" max="6" width="31.140625" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="52.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.109375" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.44140625" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
-    <col min="11" max="11" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.7109375" style="5" customWidth="1"/>
+    <col min="14" max="14" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -579,4 +664,248 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09948289-D563-4E6B-B72C-E81E15CD520C}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>